--- a/TestData_usgbc.xlsx
+++ b/TestData_usgbc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9795" windowHeight="5295"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12225" windowHeight="6465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="signup" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="payment" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:G15"/>
+  <oleSize ref="A1:J19"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="61">
   <si>
     <t>firstname</t>
   </si>
@@ -200,6 +200,12 @@
   </si>
   <si>
     <t>test25@testuser.com</t>
+  </si>
+  <si>
+    <t>ruchi@gmail.com</t>
+  </si>
+  <si>
+    <t>ruchi</t>
   </si>
 </sst>
 </file>
@@ -564,7 +570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -709,10 +715,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -784,6 +790,14 @@
         <v>57</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
@@ -793,6 +807,7 @@
     <hyperlink ref="A6" r:id="rId5"/>
     <hyperlink ref="A7" r:id="rId6"/>
     <hyperlink ref="A8" r:id="rId7"/>
+    <hyperlink ref="A9" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestData_usgbc.xlsx
+++ b/TestData_usgbc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12225" windowHeight="6465" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10635" windowHeight="5655" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="signup" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="payment" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J19"/>
+  <oleSize ref="A1:H16"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="63">
   <si>
     <t>firstname</t>
   </si>
@@ -206,6 +206,12 @@
   </si>
   <si>
     <t>ruchi</t>
+  </si>
+  <si>
+    <t>amayra@gmail.com</t>
+  </si>
+  <si>
+    <t>amayra</t>
   </si>
 </sst>
 </file>
@@ -715,10 +721,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,7 +732,7 @@
     <col min="1" max="1" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -734,7 +740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -742,7 +748,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -750,7 +756,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -758,7 +764,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -766,7 +772,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -774,7 +780,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
@@ -782,7 +788,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>58</v>
       </c>
@@ -790,7 +796,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>59</v>
       </c>
@@ -798,6 +804,15 @@
         <v>60</v>
       </c>
     </row>
+    <row r="10" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
@@ -808,6 +823,7 @@
     <hyperlink ref="A7" r:id="rId6"/>
     <hyperlink ref="A8" r:id="rId7"/>
     <hyperlink ref="A9" r:id="rId8"/>
+    <hyperlink ref="A10" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -817,7 +833,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>

--- a/TestData_usgbc.xlsx
+++ b/TestData_usgbc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10635" windowHeight="5655" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13335" windowHeight="6465"/>
   </bookViews>
   <sheets>
     <sheet name="signup" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="payment" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:H16"/>
+  <oleSize ref="A5:J23"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="68">
   <si>
     <t>firstname</t>
   </si>
@@ -212,6 +212,21 @@
   </si>
   <si>
     <t>amayra</t>
+  </si>
+  <si>
+    <t>Haryana</t>
+  </si>
+  <si>
+    <t>Jay</t>
+  </si>
+  <si>
+    <t>jay@gmail.com</t>
+  </si>
+  <si>
+    <t>jay</t>
+  </si>
+  <si>
+    <t>sinha</t>
   </si>
 </sst>
 </file>
@@ -574,17 +589,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -704,6 +719,40 @@
       </c>
       <c r="E7" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -714,6 +763,7 @@
     <hyperlink ref="C5" r:id="rId4"/>
     <hyperlink ref="C6" r:id="rId5"/>
     <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="C9" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -833,7 +883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -910,10 +960,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,6 +971,7 @@
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="22.28515625" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
     <col min="8" max="8" width="14.7109375" customWidth="1"/>
   </cols>
@@ -989,12 +1040,13 @@
         <v>33</v>
       </c>
       <c r="J2">
-        <v>120021</v>
+        <v>122001</v>
       </c>
       <c r="K2" t="s">
-        <v>35</v>
-      </c>
-    </row>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
